--- a/docss/carto/country/E_huntington.xlsx
+++ b/docss/carto/country/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\documents\carto\country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos de Elena\Documents\GitHub\ic3design\docss\carto\country\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,16 +609,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F5" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F6" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -693,16 +693,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -714,16 +714,16 @@
         <v>14</v>
       </c>
       <c r="C10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F10" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -756,16 +756,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -819,16 +819,16 @@
         <v>19</v>
       </c>
       <c r="C15" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D15" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E15" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F15" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -861,16 +861,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -882,16 +882,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F18" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -945,16 +945,16 @@
         <v>25</v>
       </c>
       <c r="C21" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E21" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F21" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1029,16 +1029,16 @@
         <v>29</v>
       </c>
       <c r="C25" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E25" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F25" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1209,16 +1209,16 @@
         <v>38</v>
       </c>
       <c r="C34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F34" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,16 +1229,16 @@
         <v>39</v>
       </c>
       <c r="C35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F35" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,16 +1249,16 @@
         <v>40</v>
       </c>
       <c r="C36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F36" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,16 +1269,16 @@
         <v>41</v>
       </c>
       <c r="C37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F37" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,16 +1289,16 @@
         <v>42</v>
       </c>
       <c r="C38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F38" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,16 +1309,16 @@
         <v>43</v>
       </c>
       <c r="C39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F39" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,16 +1329,16 @@
         <v>44</v>
       </c>
       <c r="C40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F40" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,16 +1349,16 @@
         <v>45</v>
       </c>
       <c r="C41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F41" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,16 +1369,16 @@
         <v>46</v>
       </c>
       <c r="C42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F42" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,16 +1389,16 @@
         <v>47</v>
       </c>
       <c r="C43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F43" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,16 +1409,16 @@
         <v>48</v>
       </c>
       <c r="C44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F44" s="4">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
